--- a/Documentation/Dark Fantasy Armoury 3D Scene.xlsx
+++ b/Documentation/Dark Fantasy Armoury 3D Scene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni Stuff Portable\Year 3 Uni Work\Module 4\GitHubRepo\Dark-Fantasy-Armoury\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF78C196-224F-4357-8D8C-A098D92710B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596E10B5-61EA-45D5-8087-2018E015D09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B5015552-CDE9-4DE5-9684-7753E9E55018}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>Asset ID</t>
   </si>
@@ -80,15 +80,9 @@
     <t>Weapon</t>
   </si>
   <si>
-    <t>greatsword (engraved)</t>
-  </si>
-  <si>
     <t>longbow</t>
   </si>
   <si>
-    <t>daggers with vfx</t>
-  </si>
-  <si>
     <t>maces</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>Scythe</t>
   </si>
   <si>
-    <t>chain flail</t>
-  </si>
-  <si>
     <t>Spear</t>
   </si>
   <si>
@@ -234,13 +225,43 @@
   </si>
   <si>
     <t>2 x 1</t>
+  </si>
+  <si>
+    <t>daggers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greatsword </t>
+  </si>
+  <si>
+    <t>1x 1</t>
+  </si>
+  <si>
+    <t>Lock box</t>
+  </si>
+  <si>
+    <t>2 x 2 x 2</t>
+  </si>
+  <si>
+    <t>2 x1</t>
+  </si>
+  <si>
+    <t>1x1</t>
+  </si>
+  <si>
+    <t>2 x 1 x 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x1 </t>
+  </si>
+  <si>
+    <t>Glaive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,16 +269,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -265,14 +323,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -608,7 +690,7 @@
   <dimension ref="B2:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -693,8 +775,8 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
+      <c r="D5" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -708,10 +790,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I6">
         <v>40</v>
@@ -722,7 +804,13 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -730,7 +818,13 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -738,31 +832,49 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
+      <c r="D11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -770,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -778,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
@@ -786,7 +898,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
@@ -794,7 +906,7 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
@@ -802,7 +914,7 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
@@ -810,7 +922,7 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
@@ -818,7 +930,13 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
@@ -826,7 +944,13 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
@@ -834,7 +958,13 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
@@ -842,7 +972,13 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
@@ -850,7 +986,10 @@
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -858,7 +997,10 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
@@ -866,7 +1008,10 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
@@ -874,7 +1019,7 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
@@ -882,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
@@ -890,7 +1035,18 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
@@ -898,7 +1054,7 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I32">
         <v>50</v>
@@ -909,7 +1065,10 @@
         <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="I33">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
@@ -917,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
@@ -925,7 +1084,7 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
@@ -933,7 +1092,7 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I36">
         <v>20</v>
@@ -944,7 +1103,7 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
@@ -952,7 +1111,7 @@
         <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
@@ -960,7 +1119,7 @@
         <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
@@ -968,7 +1127,7 @@
         <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
@@ -976,7 +1135,7 @@
         <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
@@ -984,7 +1143,7 @@
         <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
@@ -992,7 +1151,7 @@
         <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
@@ -1000,7 +1159,7 @@
         <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
@@ -1008,7 +1167,7 @@
         <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
@@ -1016,7 +1175,7 @@
         <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -1024,7 +1183,7 @@
         <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
@@ -1032,7 +1191,7 @@
         <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
@@ -1040,7 +1199,7 @@
         <v>44</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -1048,7 +1207,7 @@
         <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -1056,7 +1215,7 @@
         <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -1064,7 +1223,7 @@
         <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -1072,7 +1231,7 @@
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -1080,7 +1239,7 @@
         <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -1088,7 +1247,7 @@
         <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -1096,7 +1255,7 @@
         <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Dark Fantasy Armoury 3D Scene.xlsx
+++ b/Documentation/Dark Fantasy Armoury 3D Scene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni Stuff Portable\Year 3 Uni Work\Module 4\GitHubRepo\Dark-Fantasy-Armoury\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596E10B5-61EA-45D5-8087-2018E015D09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB39AA3-8DCE-454C-AF8B-DF0451ABE8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B5015552-CDE9-4DE5-9684-7753E9E55018}"/>
   </bookViews>
@@ -261,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,16 +283,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,11 +299,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -339,21 +326,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -690,7 +675,7 @@
   <dimension ref="B2:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,6 +732,9 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4">
@@ -767,6 +755,9 @@
       <c r="G4" t="s">
         <v>9</v>
       </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
@@ -874,7 +865,7 @@
         <v>62</v>
       </c>
       <c r="I12">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">

--- a/Documentation/Dark Fantasy Armoury 3D Scene.xlsx
+++ b/Documentation/Dark Fantasy Armoury 3D Scene.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni Stuff Portable\Year 3 Uni Work\Module 4\GitHubRepo\Dark-Fantasy-Armoury\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB39AA3-8DCE-454C-AF8B-DF0451ABE8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645AC038-79C8-4F2D-866B-A20ABEFDABB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B5015552-CDE9-4DE5-9684-7753E9E55018}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>Asset ID</t>
   </si>
@@ -89,9 +89,6 @@
     <t>battleaxe</t>
   </si>
   <si>
-    <t>Scythe</t>
-  </si>
-  <si>
     <t>Spear</t>
   </si>
   <si>
@@ -128,18 +125,6 @@
     <t>grindstone</t>
   </si>
   <si>
-    <t>Casting Molds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chains </t>
-  </si>
-  <si>
-    <t>Tapestry?</t>
-  </si>
-  <si>
-    <t>Flag</t>
-  </si>
-  <si>
     <t>Chest</t>
   </si>
   <si>
@@ -149,21 +134,12 @@
     <t>Amour Stands</t>
   </si>
   <si>
-    <t>bookshelves?</t>
-  </si>
-  <si>
     <t>Tools for workbench</t>
   </si>
   <si>
-    <t>cabinet for materials</t>
-  </si>
-  <si>
     <t>stone pedestal?</t>
   </si>
   <si>
-    <t>Trophy mount?</t>
-  </si>
-  <si>
     <t>Iron chandelier</t>
   </si>
   <si>
@@ -173,36 +149,12 @@
     <t>magical light source?</t>
   </si>
   <si>
-    <t>particles</t>
-  </si>
-  <si>
-    <t>shadows</t>
-  </si>
-  <si>
-    <t>Metals</t>
-  </si>
-  <si>
-    <t>Woods</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Rust</t>
-  </si>
-  <si>
-    <t>tools for smithing</t>
-  </si>
-  <si>
     <t>weapon and armour components</t>
   </si>
   <si>
     <t>bottles</t>
   </si>
   <si>
-    <t>cloths and whetstones</t>
-  </si>
-  <si>
     <t>buckets</t>
   </si>
   <si>
@@ -227,9 +179,6 @@
     <t>2 x 1</t>
   </si>
   <si>
-    <t>daggers</t>
-  </si>
-  <si>
     <t xml:space="preserve">greatsword </t>
   </si>
   <si>
@@ -255,13 +204,25 @@
   </si>
   <si>
     <t>Glaive</t>
+  </si>
+  <si>
+    <t>bookshelves</t>
+  </si>
+  <si>
+    <t>dagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cabinet </t>
+  </si>
+  <si>
+    <t>whetstones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,8 +244,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +275,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -326,20 +312,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -674,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704DEA17-3E42-4DC1-B731-7742A95B18C6}">
   <dimension ref="B2:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,10 +701,10 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -720,7 +714,7 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -733,7 +727,7 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
@@ -743,7 +737,7 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
@@ -756,7 +750,7 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -766,11 +760,11 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>64</v>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -780,11 +774,11 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I6">
         <v>40</v>
@@ -794,61 +788,58 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>63</v>
+      <c r="D7" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I7">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I9">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>72</v>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I11">
         <v>60</v>
@@ -858,87 +849,87 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>18</v>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I12">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
-        <v>20</v>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
-        <v>21</v>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
-        <v>22</v>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
-        <v>23</v>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="D19" t="s">
-        <v>59</v>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="D21" t="s">
-        <v>60</v>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I21">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="D22" t="s">
-        <v>25</v>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="I22">
         <v>50</v>
@@ -948,104 +939,95 @@
       <c r="B23">
         <v>19</v>
       </c>
-      <c r="D23" t="s">
-        <v>26</v>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I23">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="D24" t="s">
-        <v>27</v>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I24">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>21</v>
       </c>
-      <c r="D25" t="s">
-        <v>28</v>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="I25">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>22</v>
       </c>
-      <c r="D26" t="s">
-        <v>29</v>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="I26">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>23</v>
       </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>24</v>
       </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>25</v>
       </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>26</v>
       </c>
-      <c r="D30" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>52</v>
       </c>
-      <c r="D31" t="s">
-        <v>66</v>
+      <c r="D31" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I31">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>27</v>
       </c>
-      <c r="D32" t="s">
-        <v>34</v>
+      <c r="D32" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I32">
         <v>50</v>
@@ -1055,8 +1037,8 @@
       <c r="B33">
         <v>28</v>
       </c>
-      <c r="D33" t="s">
-        <v>35</v>
+      <c r="D33" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="I33">
         <v>20</v>
@@ -1066,24 +1048,30 @@
       <c r="B34">
         <v>29</v>
       </c>
-      <c r="D34" t="s">
-        <v>36</v>
+      <c r="D34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>30</v>
       </c>
-      <c r="D35" t="s">
-        <v>37</v>
+      <c r="D35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>31</v>
       </c>
-      <c r="D36" t="s">
-        <v>38</v>
+      <c r="D36" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="I36">
         <v>20</v>
@@ -1093,15 +1081,21 @@
       <c r="B37">
         <v>32</v>
       </c>
-      <c r="D37" t="s">
-        <v>39</v>
+      <c r="D37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37">
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>33</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38">
         <v>40</v>
       </c>
     </row>
@@ -1109,147 +1103,397 @@
       <c r="B39">
         <v>34</v>
       </c>
-      <c r="D39" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>36</v>
       </c>
-      <c r="D42" t="s">
-        <v>43</v>
+      <c r="D42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>37</v>
       </c>
-      <c r="D43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44">
-        <v>38</v>
-      </c>
-      <c r="D44" t="s">
-        <v>45</v>
+      <c r="D43" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46">
         <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49">
+      <c r="I50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50">
-        <v>43</v>
-      </c>
-      <c r="D50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52">
-        <v>44</v>
-      </c>
-      <c r="D52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53">
-        <v>45</v>
-      </c>
-      <c r="D53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54">
-        <v>46</v>
-      </c>
-      <c r="D54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55">
-        <v>47</v>
-      </c>
-      <c r="D55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56">
-        <v>48</v>
-      </c>
-      <c r="D56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57">
-        <v>49</v>
-      </c>
-      <c r="D57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58">
-        <v>50</v>
-      </c>
-      <c r="D58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59">
-        <v>51</v>
-      </c>
-      <c r="D59" t="s">
-        <v>58</v>
-      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D59" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A241D5A5D09A2949AF86170840E0F92B" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="281369cab71f23bab388721c8c8be573">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2a85df21-10b5-4e5c-b3bf-86639cf7232c" xmlns:ns4="b7b03c69-85b8-4748-82ad-ef838fd3b6b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="81ef05f1c993dafa631f0ddacc2b90f8" ns3:_="" ns4:_="">
+    <xsd:import namespace="2a85df21-10b5-4e5c-b3bf-86639cf7232c"/>
+    <xsd:import namespace="b7b03c69-85b8-4748-82ad-ef838fd3b6b1"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2a85df21-10b5-4e5c-b3bf-86639cf7232c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="19" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="20" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="22" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b7b03c69-85b8-4748-82ad-ef838fd3b6b1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2a85df21-10b5-4e5c-b3bf-86639cf7232c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0342BC0C-582D-499B-9F31-86A9E0F85CAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a85df21-10b5-4e5c-b3bf-86639cf7232c"/>
+    <ds:schemaRef ds:uri="b7b03c69-85b8-4748-82ad-ef838fd3b6b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9E08866-CBB7-4DEA-BEED-0B67211157B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="2a85df21-10b5-4e5c-b3bf-86639cf7232c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b7b03c69-85b8-4748-82ad-ef838fd3b6b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E11E65AE-CCFB-4ECA-9415-F67D2A7AEC27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/Dark Fantasy Armoury 3D Scene.xlsx
+++ b/Documentation/Dark Fantasy Armoury 3D Scene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni Stuff Portable\Year 3 Uni Work\Module 4\GitHubRepo\Dark-Fantasy-Armoury\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645AC038-79C8-4F2D-866B-A20ABEFDABB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7B0811-6F04-467E-8615-86DC6697E48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B5015552-CDE9-4DE5-9684-7753E9E55018}"/>
   </bookViews>
@@ -668,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704DEA17-3E42-4DC1-B731-7742A95B18C6}">
   <dimension ref="B2:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
@@ -1438,20 +1438,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2a85df21-10b5-4e5c-b3bf-86639cf7232c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2a85df21-10b5-4e5c-b3bf-86639cf7232c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1474,6 +1474,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E11E65AE-CCFB-4ECA-9415-F67D2A7AEC27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9E08866-CBB7-4DEA-BEED-0B67211157B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1488,12 +1496,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E11E65AE-CCFB-4ECA-9415-F67D2A7AEC27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>